--- a/Data_preparation/datasets/final_data/CISCO_SYSTEMS_INC.xlsx
+++ b/Data_preparation/datasets/final_data/CISCO_SYSTEMS_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42028</v>
       </c>
       <c r="D2">
-        <v>45.94428254794989</v>
+        <v>18.94002225752671</v>
       </c>
       <c r="E2">
-        <v>53.31124877929688</v>
+        <v>21.17923736572266</v>
       </c>
       <c r="F2">
-        <v>53.35536055254345</v>
+        <v>21.52373157655332</v>
       </c>
       <c r="G2">
-        <v>45.77517806828758</v>
+        <v>18.60270518053397</v>
       </c>
       <c r="H2">
-        <v>1079000000</v>
+        <v>3953196953</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>144254321627</v>
@@ -888,22 +780,22 @@
         <v>42119</v>
       </c>
       <c r="D3">
-        <v>12.74488792780431</v>
+        <v>20.83508725843124</v>
       </c>
       <c r="E3">
-        <v>12.64545917510986</v>
+        <v>21.19668197631836</v>
       </c>
       <c r="F3">
-        <v>13.14260035252423</v>
+        <v>21.62336385377512</v>
       </c>
       <c r="G3">
-        <v>11.79580038219858</v>
+        <v>20.74830529858798</v>
       </c>
       <c r="H3">
-        <v>862100000</v>
+        <v>3953196953</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>147118568498</v>
@@ -1016,22 +908,22 @@
         <v>42210</v>
       </c>
       <c r="D4">
-        <v>80.5</v>
+        <v>20.70414632262139</v>
       </c>
       <c r="E4">
-        <v>70.95999908447266</v>
+        <v>18.86037635803223</v>
       </c>
       <c r="F4">
-        <v>80.95999908447266</v>
+        <v>21.28715587387261</v>
       </c>
       <c r="G4">
-        <v>64.29000091552734</v>
+        <v>16.78340396294699</v>
       </c>
       <c r="H4">
-        <v>207519000</v>
+        <v>3953196953</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>144439239932</v>
@@ -1144,22 +1036,22 @@
         <v>42301</v>
       </c>
       <c r="D5">
-        <v>24.30973052978516</v>
+        <v>21.20905738678914</v>
       </c>
       <c r="E5">
-        <v>23.86653137207031</v>
+        <v>20.01893997192383</v>
       </c>
       <c r="F5">
-        <v>25.31838989257812</v>
+        <v>21.20905738678914</v>
       </c>
       <c r="G5">
-        <v>22.66938400268555</v>
+        <v>18.96840454920285</v>
       </c>
       <c r="H5">
-        <v>60308678</v>
+        <v>3953196953</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>148548958091</v>
@@ -1272,22 +1164,22 @@
         <v>42392</v>
       </c>
       <c r="D6">
-        <v>21.77208002677406</v>
+        <v>17.36894796947403</v>
       </c>
       <c r="E6">
-        <v>21.82173156738281</v>
+        <v>19.38274002075196</v>
       </c>
       <c r="F6">
-        <v>22.31824352975136</v>
+        <v>19.92320568834162</v>
       </c>
       <c r="G6">
-        <v>20.89641115827674</v>
+        <v>16.62858357700609</v>
       </c>
       <c r="H6">
-        <v>14840390000</v>
+        <v>3953196953</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>118627973638</v>
@@ -1400,22 +1292,22 @@
         <v>42490</v>
       </c>
       <c r="D7">
-        <v>20.13999938964844</v>
+        <v>20.53127499995558</v>
       </c>
       <c r="E7">
-        <v>14.52000045776367</v>
+        <v>21.70427703857422</v>
       </c>
       <c r="F7">
-        <v>20.25</v>
+        <v>21.72669160764143</v>
       </c>
       <c r="G7">
-        <v>12.52999973297119</v>
+        <v>19.28355915616021</v>
       </c>
       <c r="H7">
-        <v>263895614</v>
+        <v>3953196953</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>138333012723</v>
@@ -1528,22 +1420,22 @@
         <v>42581</v>
       </c>
       <c r="D8">
-        <v>67.30164545273598</v>
+        <v>23.14600198327657</v>
       </c>
       <c r="E8">
-        <v>67.94705963134766</v>
+        <v>23.70391845703125</v>
       </c>
       <c r="F8">
-        <v>68.20522681790243</v>
+        <v>23.89994339722005</v>
       </c>
       <c r="G8">
-        <v>66.35835305168469</v>
+        <v>22.66347850049294</v>
       </c>
       <c r="H8">
-        <v>61741703</v>
+        <v>3953196953</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>153557106688</v>
@@ -1656,22 +1548,22 @@
         <v>42672</v>
       </c>
       <c r="D9">
-        <v>26.08935555313321</v>
+        <v>23.45132074835026</v>
       </c>
       <c r="E9">
-        <v>32.42730331420898</v>
+        <v>22.66834259033203</v>
       </c>
       <c r="F9">
-        <v>33.05337884225837</v>
+        <v>24.24189935506609</v>
       </c>
       <c r="G9">
-        <v>25.64338327185894</v>
+        <v>22.46309567756309</v>
       </c>
       <c r="H9">
-        <v>123248686</v>
+        <v>3953196953</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>153389083751</v>
@@ -1784,22 +1676,22 @@
         <v>42763</v>
       </c>
       <c r="D10">
-        <v>63.06000137329102</v>
+        <v>23.65268541298835</v>
       </c>
       <c r="E10">
-        <v>71.44000244140625</v>
+        <v>26.20579528808594</v>
       </c>
       <c r="F10">
-        <v>73.08000183105469</v>
+        <v>26.31313277529562</v>
       </c>
       <c r="G10">
-        <v>62.2400016784668</v>
+        <v>23.3230043167145</v>
       </c>
       <c r="H10">
-        <v>185748673</v>
+        <v>3953196953</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>155512131775</v>
@@ -1912,22 +1804,22 @@
         <v>42854</v>
       </c>
       <c r="D11">
-        <v>105.2824839738816</v>
+        <v>26.37995125663196</v>
       </c>
       <c r="E11">
-        <v>100.4015350341797</v>
+        <v>24.38463401794434</v>
       </c>
       <c r="F11">
-        <v>105.525874177026</v>
+        <v>26.75890521531853</v>
       </c>
       <c r="G11">
-        <v>98.53335616363826</v>
+        <v>23.48751473078885</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>3953196953</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>170617662335</v>
@@ -2040,22 +1932,22 @@
         <v>42945</v>
       </c>
       <c r="D12">
-        <v>28.84000015258789</v>
+        <v>24.65928530747341</v>
       </c>
       <c r="E12">
-        <v>26.34000015258789</v>
+        <v>25.14325904846192</v>
       </c>
       <c r="F12">
-        <v>29.97999954223633</v>
+        <v>25.3462177957519</v>
       </c>
       <c r="G12">
-        <v>24.48999977111816</v>
+        <v>23.69914255680671</v>
       </c>
       <c r="H12">
-        <v>48253392</v>
+        <v>3953196953</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>157601714656</v>
@@ -2168,22 +2060,22 @@
         <v>43036</v>
       </c>
       <c r="D13">
-        <v>27.76754404304676</v>
+        <v>26.9982183096425</v>
       </c>
       <c r="E13">
-        <v>29.36128807067871</v>
+        <v>29.36813926696777</v>
       </c>
       <c r="F13">
-        <v>29.5525363117698</v>
+        <v>29.94290411039217</v>
       </c>
       <c r="G13">
-        <v>27.35772563911961</v>
+        <v>26.51005939865164</v>
       </c>
       <c r="H13">
-        <v>174270076</v>
+        <v>3953196953</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>170495839950</v>
@@ -2296,22 +2188,22 @@
         <v>43127</v>
       </c>
       <c r="D14">
-        <v>40.04395874521859</v>
+        <v>32.59350694472726</v>
       </c>
       <c r="E14">
-        <v>41.37875747680664</v>
+        <v>35.5204963684082</v>
       </c>
       <c r="F14">
-        <v>42.73034651222623</v>
+        <v>36.40097367353828</v>
       </c>
       <c r="G14">
-        <v>35.29241164327789</v>
+        <v>29.62685398226136</v>
       </c>
       <c r="H14">
-        <v>4757218036</v>
+        <v>3953196953</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>210400557597</v>
@@ -2412,22 +2304,22 @@
         <v>43218</v>
       </c>
       <c r="D15">
-        <v>29.79999923706055</v>
+        <v>35.11039457278382</v>
       </c>
       <c r="E15">
-        <v>26.26000022888184</v>
+        <v>34.15087509155273</v>
       </c>
       <c r="F15">
-        <v>30.10000038146973</v>
+        <v>37.07740752665912</v>
       </c>
       <c r="G15">
-        <v>24.76000022888184</v>
+        <v>33.99895236836392</v>
       </c>
       <c r="H15">
-        <v>158300823</v>
+        <v>3953196953</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>215391203401</v>
@@ -2540,22 +2432,22 @@
         <v>43309</v>
       </c>
       <c r="D16">
-        <v>27.97210020819945</v>
+        <v>33.83685647208515</v>
       </c>
       <c r="E16">
-        <v>28.09128570556641</v>
+        <v>38.49456024169922</v>
       </c>
       <c r="F16">
-        <v>28.76056376347318</v>
+        <v>38.54291122467185</v>
       </c>
       <c r="G16">
-        <v>26.88108696871215</v>
+        <v>33.20024902928949</v>
       </c>
       <c r="H16">
-        <v>174270076</v>
+        <v>3953196953</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>200201707770</v>
@@ -2668,22 +2560,22 @@
         <v>43400</v>
       </c>
       <c r="D17">
-        <v>193.5399932861328</v>
+        <v>37.05111522153125</v>
       </c>
       <c r="E17">
-        <v>198.6300048828125</v>
+        <v>38.83592987060547</v>
       </c>
       <c r="F17">
-        <v>201.3699951171875</v>
+        <v>39.29835871264406</v>
       </c>
       <c r="G17">
-        <v>174.6600036621094</v>
+        <v>35.76118441621196</v>
       </c>
       <c r="H17">
-        <v>24003656</v>
+        <v>3953196953</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>202281535518</v>
@@ -2796,22 +2688,22 @@
         <v>43491</v>
       </c>
       <c r="D18">
-        <v>159.5487626816853</v>
+        <v>38.72786106005871</v>
       </c>
       <c r="E18">
-        <v>173.8226776123047</v>
+        <v>42.32513046264648</v>
       </c>
       <c r="F18">
-        <v>175.6270923461549</v>
+        <v>42.48046591932168</v>
       </c>
       <c r="G18">
-        <v>155.512558863845</v>
+        <v>37.85307109911647</v>
       </c>
       <c r="H18">
-        <v>2319000000</v>
+        <v>3953196953</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>207398714605</v>
@@ -2912,22 +2804,22 @@
         <v>43582</v>
       </c>
       <c r="D19">
-        <v>2.247999906539917</v>
+        <v>46.07327796804423</v>
       </c>
       <c r="E19">
-        <v>1.899999976158142</v>
+        <v>42.80701065063477</v>
       </c>
       <c r="F19">
-        <v>2.303999900817871</v>
+        <v>46.75615127297581</v>
       </c>
       <c r="G19">
-        <v>1.820999979972839</v>
+        <v>42.00895779143495</v>
       </c>
       <c r="H19">
-        <v>594273308</v>
+        <v>3953196953</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>245985308770</v>
@@ -3040,22 +2932,22 @@
         <v>43673</v>
       </c>
       <c r="D20">
-        <v>60.4644694886448</v>
+        <v>46.23156700035268</v>
       </c>
       <c r="E20">
-        <v>59.11875152587891</v>
+        <v>38.75536727905273</v>
       </c>
       <c r="F20">
-        <v>61.39157352261505</v>
+        <v>47.1008920351993</v>
       </c>
       <c r="G20">
-        <v>56.74611594136378</v>
+        <v>38.08474348504571</v>
       </c>
       <c r="H20">
-        <v>5817000000</v>
+        <v>3953196953</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>241989836942</v>
@@ -3168,22 +3060,22 @@
         <v>43764</v>
       </c>
       <c r="D21">
-        <v>2.049999952316284</v>
+        <v>39.08227709308084</v>
       </c>
       <c r="E21">
-        <v>2.130000114440918</v>
+        <v>37.79761123657227</v>
       </c>
       <c r="F21">
-        <v>2.249000072479248</v>
+        <v>40.85912436445526</v>
       </c>
       <c r="G21">
-        <v>2.000999927520752</v>
+        <v>37.0718547900178</v>
       </c>
       <c r="H21">
-        <v>594273308</v>
+        <v>3953196953</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>199104111787</v>
@@ -3296,22 +3188,22 @@
         <v>43855</v>
       </c>
       <c r="D22">
-        <v>23.6926327642264</v>
+        <v>38.99143897313606</v>
       </c>
       <c r="E22">
-        <v>20.75907325744629</v>
+        <v>33.55448532104492</v>
       </c>
       <c r="F22">
-        <v>25.38844422011294</v>
+        <v>42.25192757545226</v>
       </c>
       <c r="G22">
-        <v>19.00478605726309</v>
+        <v>32.22675810235826</v>
       </c>
       <c r="H22">
-        <v>862100000</v>
+        <v>3953196953</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>207234526544</v>
@@ -3424,22 +3316,22 @@
         <v>43946</v>
       </c>
       <c r="D23">
-        <v>29.1299991607666</v>
+        <v>35.39108580237228</v>
       </c>
       <c r="E23">
-        <v>36.31999969482422</v>
+        <v>40.56571578979492</v>
       </c>
       <c r="F23">
-        <v>36.45000076293945</v>
+        <v>40.56571578979492</v>
       </c>
       <c r="G23">
-        <v>26.57999992370605</v>
+        <v>34.34767693222673</v>
       </c>
       <c r="H23">
-        <v>2085418676</v>
+        <v>3953196953</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>180322224446</v>
@@ -3552,22 +3444,22 @@
         <v>44037</v>
       </c>
       <c r="D24">
-        <v>49.18523125628565</v>
+        <v>40.30387063138773</v>
       </c>
       <c r="E24">
-        <v>44.42190551757812</v>
+        <v>36.09735870361328</v>
       </c>
       <c r="F24">
-        <v>50.24917073284447</v>
+        <v>41.4238987722378</v>
       </c>
       <c r="G24">
-        <v>41.23985008431981</v>
+        <v>35.43902185088453</v>
       </c>
       <c r="H24">
-        <v>1122466035</v>
+        <v>3953196953</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>195914543773</v>
@@ -3680,22 +3572,22 @@
         <v>44128</v>
       </c>
       <c r="D25">
-        <v>478.8699951171875</v>
+        <v>31.22721489297705</v>
       </c>
       <c r="E25">
-        <v>490.7000122070313</v>
+        <v>37.12060928344727</v>
       </c>
       <c r="F25">
-        <v>518.72998046875</v>
+        <v>37.14649428933779</v>
       </c>
       <c r="G25">
-        <v>463.4100036621094</v>
+        <v>30.77852280523962</v>
       </c>
       <c r="H25">
-        <v>424926346</v>
+        <v>3953196953</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>164341570030</v>
@@ -3808,22 +3700,22 @@
         <v>44219</v>
       </c>
       <c r="D26">
-        <v>239.3500061035156</v>
+        <v>39.07440315503297</v>
       </c>
       <c r="E26">
-        <v>283.4599914550781</v>
+        <v>39.03091049194336</v>
       </c>
       <c r="F26">
-        <v>354.8200073242188</v>
+        <v>42.91921496480492</v>
       </c>
       <c r="G26">
-        <v>235.8800048828125</v>
+        <v>38.84823931600049</v>
       </c>
       <c r="H26">
-        <v>278228356</v>
+        <v>3953196953</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>189176279733</v>
@@ -3936,22 +3828,22 @@
         <v>44317</v>
       </c>
       <c r="D27">
-        <v>67.30056631934143</v>
+        <v>44.86522085848997</v>
       </c>
       <c r="E27">
-        <v>69.52924346923828</v>
+        <v>46.3458366394043</v>
       </c>
       <c r="F27">
-        <v>72.48583215411878</v>
+        <v>47.43220217380526</v>
       </c>
       <c r="G27">
-        <v>65.86271341112901</v>
+        <v>43.89274627487723</v>
       </c>
       <c r="H27">
-        <v>199618386</v>
+        <v>3953196953</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>214931102198</v>
@@ -4064,22 +3956,22 @@
         <v>44408</v>
       </c>
       <c r="D28">
-        <v>82.94634035907019</v>
+        <v>49.05092186293772</v>
       </c>
       <c r="E28">
-        <v>84.26999664306641</v>
+        <v>52.06808471679688</v>
       </c>
       <c r="F28">
-        <v>86.77550126072052</v>
+        <v>53.1708482781522</v>
       </c>
       <c r="G28">
-        <v>82.34123106917598</v>
+        <v>48.15989038612424</v>
       </c>
       <c r="H28">
-        <v>2850792605</v>
+        <v>3953196953</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>233340510972</v>
@@ -4192,22 +4084,22 @@
         <v>44499</v>
       </c>
       <c r="D29">
-        <v>80.87172081815871</v>
+        <v>49.62208612965672</v>
       </c>
       <c r="E29">
-        <v>78.30628967285156</v>
+        <v>48.70727157592773</v>
       </c>
       <c r="F29">
-        <v>84.50996293035827</v>
+        <v>52.0734386684144</v>
       </c>
       <c r="G29">
-        <v>78.21299557369527</v>
+        <v>45.36775190301782</v>
       </c>
       <c r="H29">
-        <v>123248686</v>
+        <v>3953196953</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>236066679274</v>
@@ -4320,22 +4212,22 @@
         <v>44590</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>49.5392642754138</v>
       </c>
       <c r="E30">
-        <v>153.5630035400391</v>
+        <v>49.82515335083008</v>
       </c>
       <c r="F30">
-        <v>163.8345031738281</v>
+        <v>51.54048780332775</v>
       </c>
       <c r="G30">
-        <v>138.3329925537109</v>
+        <v>47.08240269050936</v>
       </c>
       <c r="H30">
-        <v>10664912097</v>
+        <v>3953196953</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>234541100524</v>
@@ -4448,22 +4340,22 @@
         <v>44681</v>
       </c>
       <c r="D31">
-        <v>150.5399932861328</v>
+        <v>44.3824310029588</v>
       </c>
       <c r="E31">
-        <v>153.7299957275391</v>
+        <v>40.52347946166992</v>
       </c>
       <c r="F31">
-        <v>158.7100067138672</v>
+        <v>46.46932249189246</v>
       </c>
       <c r="G31">
-        <v>132.3200073242188</v>
+        <v>36.89840564304387</v>
       </c>
       <c r="H31">
-        <v>272490000</v>
+        <v>3953196953</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>203471148640</v>
@@ -4576,22 +4468,22 @@
         <v>44772</v>
       </c>
       <c r="D32">
-        <v>3.940000057220459</v>
+        <v>40.89728591734684</v>
       </c>
       <c r="E32">
-        <v>3.509999990463257</v>
+        <v>40.58869552612305</v>
       </c>
       <c r="F32">
-        <v>4.380000114440918</v>
+        <v>45.38091951944369</v>
       </c>
       <c r="G32">
-        <v>3.339999914169312</v>
+        <v>40.4253239388699</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>3953196953</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>187875538359</v>
@@ -4704,22 +4596,22 @@
         <v>44863</v>
       </c>
       <c r="D33">
-        <v>83.23999786376953</v>
+        <v>41.75352049609955</v>
       </c>
       <c r="E33">
-        <v>75.77999877929688</v>
+        <v>45.54596328735352</v>
       </c>
       <c r="F33">
-        <v>86.87999725341797</v>
+        <v>45.64672924949458</v>
       </c>
       <c r="G33">
-        <v>66.44699859619141</v>
+        <v>39.74737069025502</v>
       </c>
       <c r="H33">
-        <v>323270704</v>
+        <v>3953196953</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>187527647782</v>
@@ -4832,22 +4724,22 @@
         <v>44954</v>
       </c>
       <c r="D34">
-        <v>3.789999961853027</v>
+        <v>44.68178799535382</v>
       </c>
       <c r="E34">
-        <v>3.700000047683716</v>
+        <v>44.70948791503906</v>
       </c>
       <c r="F34">
-        <v>4.099999904632568</v>
+        <v>47.77507367299224</v>
       </c>
       <c r="G34">
-        <v>3.440000057220459</v>
+        <v>42.87198711359912</v>
       </c>
       <c r="H34">
-        <v>72969110</v>
+        <v>3953196953</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>199284079586</v>
@@ -4960,22 +4852,22 @@
         <v>45045</v>
       </c>
       <c r="D35">
-        <v>80.47000122070312</v>
+        <v>43.91035005218153</v>
       </c>
       <c r="E35">
-        <v>81.30999755859375</v>
+        <v>46.20819854736328</v>
       </c>
       <c r="F35">
-        <v>87.41999816894531</v>
+        <v>46.97105110170853</v>
       </c>
       <c r="G35">
-        <v>75.16000366210938</v>
+        <v>42.38465204114739</v>
       </c>
       <c r="H35">
-        <v>136895573</v>
+        <v>3953196953</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>193527651728</v>
@@ -5088,22 +4980,22 @@
         <v>45136</v>
       </c>
       <c r="D36">
-        <v>572.4199829101562</v>
+        <v>49.2769524239324</v>
       </c>
       <c r="E36">
-        <v>546.52001953125</v>
+        <v>53.75752639770508</v>
       </c>
       <c r="F36">
-        <v>579.1199951171875</v>
+        <v>53.92625126979812</v>
       </c>
       <c r="G36">
-        <v>477.510009765625</v>
+        <v>48.96762587558856</v>
       </c>
       <c r="H36">
-        <v>52693110</v>
+        <v>3953196953</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>212269779294</v>
@@ -5216,22 +5108,22 @@
         <v>45227</v>
       </c>
       <c r="D37">
-        <v>204.0399932861328</v>
+        <v>49.13245131687603</v>
       </c>
       <c r="E37">
-        <v>240.0800018310547</v>
+        <v>45.67694091796875</v>
       </c>
       <c r="F37">
-        <v>252.75</v>
+        <v>50.51087815543385</v>
       </c>
       <c r="G37">
-        <v>197.8500061035156</v>
+        <v>43.61874036108011</v>
       </c>
       <c r="H37">
-        <v>3325150886</v>
+        <v>3953196953</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>209068467291</v>
@@ -5344,22 +5236,22 @@
         <v>45318</v>
       </c>
       <c r="D38">
-        <v>354.4882078035527</v>
+        <v>47.79259432127118</v>
       </c>
       <c r="E38">
-        <v>364.9865112304687</v>
+        <v>46.02285003662109</v>
       </c>
       <c r="F38">
-        <v>370.4596485847449</v>
+        <v>48.15415587921645</v>
       </c>
       <c r="G38">
-        <v>349.5896494174895</v>
+        <v>45.52808254406165</v>
       </c>
       <c r="H38">
-        <v>622000000</v>
+        <v>3953196953</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>211869621747</v>
@@ -5472,22 +5364,22 @@
         <v>45409</v>
       </c>
       <c r="D39">
-        <v>32.91999816894531</v>
+        <v>44.79690720105008</v>
       </c>
       <c r="E39">
-        <v>29.47999954223633</v>
+        <v>44.60505676269531</v>
       </c>
       <c r="F39">
-        <v>34.43000030517578</v>
+        <v>48.06794455061136</v>
       </c>
       <c r="G39">
-        <v>29.14999961853028</v>
+        <v>43.98154375285301</v>
       </c>
       <c r="H39">
-        <v>48253392</v>
+        <v>3953196953</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>193794093649</v>
@@ -5600,22 +5492,22 @@
         <v>45500</v>
       </c>
       <c r="D40">
-        <v>65.3347813084503</v>
+        <v>47.0382292550883</v>
       </c>
       <c r="E40">
-        <v>75.98967742919922</v>
+        <v>48.89576721191406</v>
       </c>
       <c r="F40">
-        <v>78.74061759069839</v>
+        <v>49.36015077847237</v>
       </c>
       <c r="G40">
-        <v>53.01535875336031</v>
+        <v>43.05226754085176</v>
       </c>
       <c r="H40">
-        <v>862100000</v>
+        <v>3953196953</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>192899651475</v>
@@ -5728,22 +5620,22 @@
         <v>45591</v>
       </c>
       <c r="D41">
-        <v>171.1399993896484</v>
+        <v>53.36385449345381</v>
       </c>
       <c r="E41">
-        <v>336.75</v>
+        <v>57.72147750854492</v>
       </c>
       <c r="F41">
-        <v>344.7699890136719</v>
+        <v>58.36488515821725</v>
       </c>
       <c r="G41">
-        <v>158.3300018310547</v>
+        <v>53.15913100403318</v>
       </c>
       <c r="H41">
-        <v>307636373</v>
+        <v>3953196953</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>222443557418</v>
@@ -5856,22 +5748,22 @@
         <v>45682</v>
       </c>
       <c r="D42">
-        <v>29.5</v>
+        <v>59.07668407709886</v>
       </c>
       <c r="E42">
-        <v>23.45000076293945</v>
+        <v>62.92417907714844</v>
       </c>
       <c r="F42">
-        <v>35.97999954223633</v>
+        <v>65.26997143648015</v>
       </c>
       <c r="G42">
-        <v>22.81999969482422</v>
+        <v>58.44852254504295</v>
       </c>
       <c r="H42">
-        <v>134349704</v>
+        <v>3953196953</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>247847046520</v>
@@ -5984,22 +5876,22 @@
         <v>45773</v>
       </c>
       <c r="D43">
-        <v>160.2100067138672</v>
+        <v>57.08988588876331</v>
       </c>
       <c r="E43">
-        <v>168.3200073242188</v>
+        <v>62.28706359863281</v>
       </c>
       <c r="F43">
-        <v>174.2599945068359</v>
+        <v>64.96469498942184</v>
       </c>
       <c r="G43">
-        <v>151.6699981689453</v>
+        <v>56.99108177666165</v>
       </c>
       <c r="H43">
-        <v>119792704</v>
+        <v>3953196953</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>225608963819</v>
@@ -6112,22 +6004,22 @@
         <v>45864</v>
       </c>
       <c r="D44">
-        <v>77.06999969482422</v>
+        <v>67.10480483359422</v>
       </c>
       <c r="E44">
-        <v>62.86999893188477</v>
+        <v>68.67531585693359</v>
       </c>
       <c r="F44">
-        <v>80.05999755859375</v>
+        <v>72.11455549417215</v>
       </c>
       <c r="G44">
-        <v>62.61999893188477</v>
+        <v>65.35536628936002</v>
       </c>
       <c r="H44">
-        <v>862100000</v>
+        <v>3953196953</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>272012274984</v>
